--- a/FREN/FRENttl.xlsx
+++ b/FREN/FRENttl.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -528,69 +528,12 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>FREN 201</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>FREN 202</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>FREN 203</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
         <v>25</v>
       </c>
     </row>

--- a/FREN/FRENttl.xlsx
+++ b/FREN/FRENttl.xlsx
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
